--- a/evaluation/system_evaluation.xlsx
+++ b/evaluation/system_evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bimindu\PycharmProjects\RAG Reasearch\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B6B3C0-C61C-4C78-BE20-0E8844DB20B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4451F07A-1E8D-435F-94E8-A8C020FE03FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-5910" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Question_ID</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Q001</t>
   </si>
   <si>
-    <t>Q010</t>
-  </si>
-  <si>
     <t>baseline</t>
   </si>
   <si>
@@ -73,73 +70,19 @@
     <t>What is the dress code for final presentations?</t>
   </si>
   <si>
-    <t>What are the prerequisites for INTE 31213?</t>
-  </si>
-  <si>
-    <t>Male students must wear formal shirt (long sleeves), tie, dark trousers, formal shoes; females: professional formal (skirt/trouser + jacket).</t>
-  </si>
-  <si>
-    <t>Prerequisites: INTE 21213 and INTE 22242 must be completed before INTE 31213.</t>
-  </si>
-  <si>
-    <t>Dress code is generally formal. You should look professional and neat. Wear something appropriate like a shirt and trousers.</t>
-  </si>
-  <si>
-    <t>According to the Department Presentation Guidelines: Male students must wear a long‑sleeve formal shirt with tie, dark trousers and formal shoes. Female students should wear professional formal attire (skirt or trousers with a jacket). Follow department rules over general faculty notes.</t>
-  </si>
-  <si>
-    <t>You normally need to finish earlier core modules before INTE 31213.</t>
-  </si>
-  <si>
-    <t>Prerequisites for INTE 31213: INTE 21213 and INTE 22242 (per Program Curriculum 2024). Both must be passed before enrollment.</t>
-  </si>
-  <si>
-    <t>dept_presentation_guidelines.pdf</t>
-  </si>
-  <si>
-    <t>program_curriculum_2024.pdf</t>
-  </si>
-  <si>
-    <t>faculty_general_guidelines.pdf, dept_presentation_guidelines.pdf</t>
-  </si>
-  <si>
-    <t>dept_presentation_guidelines.pdf, faculty_general_guidelines.pdf</t>
-  </si>
-  <si>
-    <t>general_curriculum_outline.pdf, program_curriculum_2024.pdf</t>
-  </si>
-  <si>
-    <t>program_curriculum_2024.pdf, general_curriculum_outline.pdf</t>
-  </si>
-  <si>
-    <t>Faculty guideline chunk text about general formal appearance...||Department guideline chunk with specific male/female attire rules...</t>
-  </si>
-  <si>
-    <t>Department guideline chunk with specific male/female attire rules...||Faculty generic formal appearance chunk...</t>
-  </si>
-  <si>
-    <t>Generic curriculum overview chunk...||Prerequisite table chunk listing INTE 21213 and INTE 22242...</t>
-  </si>
-  <si>
-    <t>Prerequisite table chunk listing INTE 21213 and INTE 22242...||Generic curriculum overview chunk...</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Baseline pulled faculty before department; vague answer; missed female specifics.</t>
-  </si>
-  <si>
     <t>Enhanced ranked department first; precise and complete.</t>
   </si>
   <si>
-    <t>Baseline vague; did not list codes explicitly first.</t>
-  </si>
-  <si>
-    <t>Enhanced ranked the specific curriculum doc first and gave exact codes.</t>
-  </si>
-  <si>
     <t>Notes(Not mandatory)</t>
+  </si>
+  <si>
+    <t>Q002</t>
+  </si>
+  <si>
+    <t>Information about presentation dresscode is not mentioned in the documents.</t>
   </si>
 </sst>
 </file>
@@ -225,6 +168,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -243,20 +200,6 @@
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -271,8 +214,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE801909-8761-4C53-BEEB-794C9D645353}" name="Table1" displayName="Table1" ref="B1:B1048576" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="B1:B1048576" xr:uid="{EE801909-8761-4C53-BEEB-794C9D645353}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE801909-8761-4C53-BEEB-794C9D645353}" name="Table1" displayName="Table1" ref="B1:B1048573" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="B1:B1048573" xr:uid="{EE801909-8761-4C53-BEEB-794C9D645353}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{372AFDFC-1D6C-46A0-B630-85D61B2E3C14}" name="System_Variant"/>
   </tableColumns>
@@ -567,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,7 +569,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -637,63 +580,39 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I3">
         <v>5</v>
@@ -705,92 +624,10 @@
         <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
